--- a/15.xlsx
+++ b/15.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="555" yWindow="660" windowWidth="14805" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Наименование</t>
   </si>
@@ -58,6 +59,12 @@
   </si>
   <si>
     <t>Среднее значение:</t>
+  </si>
+  <si>
+    <t>Максимальное значение</t>
+  </si>
+  <si>
+    <t>Минимальное значение</t>
   </si>
 </sst>
 </file>
@@ -114,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +134,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -324,11 +332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136223360"/>
-        <c:axId val="138698752"/>
+        <c:axId val="164674944"/>
+        <c:axId val="134558848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136223360"/>
+        <c:axId val="164674944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138698752"/>
+        <c:crossAx val="134558848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138698752"/>
+        <c:axId val="134558848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136223360"/>
+        <c:crossAx val="164674944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -383,15 +391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -700,17 +708,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,6 +853,40 @@
       <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>56.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <f>MAX(B2:B10)</f>
+        <v>578000</v>
+      </c>
+      <c r="C12" s="6">
+        <f>MAX(C2:C10)</f>
+        <v>115000</v>
+      </c>
+      <c r="D12" s="6">
+        <f>MAX(D2:D10)</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <f>MIN(B2:B10)</f>
+        <v>30000</v>
+      </c>
+      <c r="C13" s="6">
+        <f>MIN(C2:C10)</f>
+        <v>1300</v>
+      </c>
+      <c r="D13" s="6">
+        <f>MIN(D2:D10)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -875,4 +918,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>